--- a/meta/docs/meta_pinout.xlsx
+++ b/meta/docs/meta_pinout.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="356">
   <si>
     <t>North-16</t>
   </si>
@@ -468,19 +468,13 @@
     <t>Instance</t>
   </si>
   <si>
-    <t>H1/H2</t>
-  </si>
-  <si>
-    <t>H3/H4</t>
+    <t>H1/H2/H3/H4</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>SOUTH/WEST</t>
-  </si>
-  <si>
-    <t>NORTH/EAST</t>
+    <t>SOUTH/WEST/NORTH/EAST</t>
   </si>
   <si>
     <t>CONTROL</t>
@@ -495,514 +489,601 @@
     <t>Signal</t>
   </si>
   <si>
+    <t>SO_LCLK_IN_N[0]</t>
+  </si>
+  <si>
+    <t>SO_LCLK_OUT_N[0]</t>
+  </si>
+  <si>
+    <t>RESET0B</t>
+  </si>
+  <si>
+    <t>FLAG0</t>
+  </si>
+  <si>
+    <t>SO_LCLK_IN_P[0]</t>
+  </si>
+  <si>
+    <t>SO_LCLK_OUT_P[0]</t>
+  </si>
+  <si>
+    <t>RESET4B</t>
+  </si>
+  <si>
+    <t>FLAG1</t>
+  </si>
+  <si>
+    <t>SO_FRAME_IN_N[0]</t>
+  </si>
+  <si>
+    <t>SO_FRAME_OUT_N[0]</t>
+  </si>
+  <si>
+    <t>RESET8B</t>
+  </si>
+  <si>
+    <t>FLAG2</t>
+  </si>
+  <si>
+    <t>SO_FRAME_IN_P[0]</t>
+  </si>
+  <si>
+    <t>SO_FRAME_OUT_P[0]</t>
+  </si>
+  <si>
+    <t>RESET12B</t>
+  </si>
+  <si>
+    <t>FLAG3</t>
+  </si>
+  <si>
     <t>VDD</t>
   </si>
   <si>
+    <t>SO_RD_WAIT_OUT_N[0]</t>
+  </si>
+  <si>
+    <t>SO_RD_WAIT_IN_N[0]</t>
+  </si>
+  <si>
+    <t>CLK0_N</t>
+  </si>
+  <si>
+    <t>FLAG4</t>
+  </si>
+  <si>
+    <t>SO_RD_WAIT_OUT_P[0]</t>
+  </si>
+  <si>
+    <t>SO_RD_WAIT_IN_P[0]</t>
+  </si>
+  <si>
+    <t>CLK0_P</t>
+  </si>
+  <si>
+    <t>FLAG5</t>
+  </si>
+  <si>
+    <t>SO_WR_WAIT_OUT_N[0]</t>
+  </si>
+  <si>
+    <t>SO_WR_WAIT_IN_N[0]</t>
+  </si>
+  <si>
+    <t>CLK4_N</t>
+  </si>
+  <si>
+    <t>FLAG6</t>
+  </si>
+  <si>
+    <t>SO_WR_WAIT_OUT_P[0]</t>
+  </si>
+  <si>
+    <t>SO_WR_WAIT_IN_P[0]</t>
+  </si>
+  <si>
+    <t>CLK4_P</t>
+  </si>
+  <si>
+    <t>FLAG7</t>
+  </si>
+  <si>
+    <t>SO_DATA_IN_N[0]</t>
+  </si>
+  <si>
+    <t>SO_DATA_OUT_N[0]</t>
+  </si>
+  <si>
+    <t>CLK8_N</t>
+  </si>
+  <si>
+    <t>FLAG8</t>
+  </si>
+  <si>
+    <t>SO_DATA_IN_P[0]</t>
+  </si>
+  <si>
+    <t>SO_DATA_OUT_P[0]</t>
+  </si>
+  <si>
+    <t>CLK8_P</t>
+  </si>
+  <si>
+    <t>FLAG9</t>
+  </si>
+  <si>
+    <t>SO_DATA_IN_N[1]</t>
+  </si>
+  <si>
+    <t>SO_DATA_OUT_N[1]</t>
+  </si>
+  <si>
+    <t>CLK12_N</t>
+  </si>
+  <si>
+    <t>FLAG10</t>
+  </si>
+  <si>
+    <t>SO_DATA_IN_P[1]</t>
+  </si>
+  <si>
+    <t>SO_DATA_OUT_P[1]</t>
+  </si>
+  <si>
+    <t>CLK12_P</t>
+  </si>
+  <si>
+    <t>FLAG11</t>
+  </si>
+  <si>
+    <t>IOVDD</t>
+  </si>
+  <si>
+    <t>SO_DATA_IN_N[2]</t>
+  </si>
+  <si>
+    <t>SO_DATA_OUT_N[2]</t>
+  </si>
+  <si>
+    <t>RESET1B</t>
+  </si>
+  <si>
+    <t>FLAG12</t>
+  </si>
+  <si>
+    <t>SO_DATA_IN_P[2]</t>
+  </si>
+  <si>
+    <t>SO_DATA_OUT_P[2]</t>
+  </si>
+  <si>
+    <t>FLAG13</t>
+  </si>
+  <si>
+    <t>SO_DATA_IN_N[3]</t>
+  </si>
+  <si>
+    <t>SO_DATA_OUT_N[3]</t>
+  </si>
+  <si>
+    <t>RESET5B</t>
+  </si>
+  <si>
+    <t>FLAG14</t>
+  </si>
+  <si>
+    <t>SO_DATA_IN_P[3]</t>
+  </si>
+  <si>
+    <t>SO_DATA_OUT_P[3]</t>
+  </si>
+  <si>
+    <t>FLAG15</t>
+  </si>
+  <si>
+    <t>SO_DATA_IN_N[4]</t>
+  </si>
+  <si>
+    <t>SO_DATA_OUT_N[4]</t>
+  </si>
+  <si>
+    <t>CLK1_N</t>
+  </si>
+  <si>
     <t>PC0</t>
   </si>
   <si>
-    <t>PC1</t>
-  </si>
-  <si>
-    <t>PC2</t>
-  </si>
-  <si>
-    <t>PC3</t>
-  </si>
-  <si>
-    <t>PWR</t>
-  </si>
-  <si>
-    <t>RESET0B</t>
-  </si>
-  <si>
-    <t>PC4</t>
-  </si>
-  <si>
-    <t>RESET4B</t>
-  </si>
-  <si>
-    <t>PC5</t>
-  </si>
-  <si>
-    <t>RESET8B</t>
-  </si>
-  <si>
-    <t>PC6</t>
-  </si>
-  <si>
-    <t>RESET12B</t>
-  </si>
-  <si>
-    <t>PC7</t>
-  </si>
-  <si>
-    <t>CLK0_N</t>
-  </si>
-  <si>
-    <t>PC8</t>
-  </si>
-  <si>
-    <t>CLK0_P</t>
-  </si>
-  <si>
-    <t>PC9</t>
-  </si>
-  <si>
-    <t>CLK4_N</t>
-  </si>
-  <si>
-    <t>PC10</t>
-  </si>
-  <si>
-    <t>CLK4_P</t>
-  </si>
-  <si>
-    <t>PC11</t>
-  </si>
-  <si>
-    <t>CLK8_N</t>
-  </si>
-  <si>
-    <t>PC12</t>
-  </si>
-  <si>
-    <t>CLK8_P</t>
-  </si>
-  <si>
-    <t>PC13</t>
-  </si>
-  <si>
-    <t>PC14</t>
-  </si>
-  <si>
-    <t>PC15</t>
-  </si>
-  <si>
-    <t>FLAG1</t>
-  </si>
-  <si>
-    <t>PC16</t>
-  </si>
-  <si>
-    <t>FLAG5</t>
-  </si>
-  <si>
-    <t>PC17</t>
-  </si>
-  <si>
-    <t>FLAG9</t>
-  </si>
-  <si>
-    <t>PC18</t>
-  </si>
-  <si>
-    <t>FLAG13</t>
-  </si>
-  <si>
-    <t>PC19</t>
-  </si>
-  <si>
-    <t>12V</t>
-  </si>
-  <si>
-    <t>PC20</t>
-  </si>
-  <si>
-    <t>9V</t>
+    <t>SO_DATA_IN_P[4]</t>
+  </si>
+  <si>
+    <t>SO_DATA_OUT_P[4]</t>
+  </si>
+  <si>
+    <t>CLK1_P</t>
+  </si>
+  <si>
+    <t>PC1 </t>
+  </si>
+  <si>
+    <t>SO_DATA_IN_N[5]</t>
+  </si>
+  <si>
+    <t>SO_DATA_OUT_N[5]</t>
+  </si>
+  <si>
+    <t>CLK5_N</t>
+  </si>
+  <si>
+    <t>PC2 </t>
+  </si>
+  <si>
+    <t>SO_DATA_IN_P[5]</t>
+  </si>
+  <si>
+    <t>SO_DATA_OUT_P[5]</t>
+  </si>
+  <si>
+    <t>CLK5_P</t>
+  </si>
+  <si>
+    <t>PC3 </t>
+  </si>
+  <si>
+    <t>SO_DATA_IN_N[6]</t>
+  </si>
+  <si>
+    <t>SO_DATA_OUT_N[6]</t>
+  </si>
+  <si>
+    <t>CLK9_N</t>
+  </si>
+  <si>
+    <t>PC4 </t>
+  </si>
+  <si>
+    <t>SO_DATA_IN_P[6]</t>
+  </si>
+  <si>
+    <t>SO_DATA_OUT_P[6]</t>
+  </si>
+  <si>
+    <t>CLK9_P</t>
+  </si>
+  <si>
+    <t>PC5 </t>
+  </si>
+  <si>
+    <t>SO_DATA_IN_N[7]</t>
+  </si>
+  <si>
+    <t>SO_DATA_OUT_N[7]</t>
+  </si>
+  <si>
+    <t>CLK13_N</t>
+  </si>
+  <si>
+    <t>PC6 </t>
+  </si>
+  <si>
+    <t>SO_DATA_IN_P[7]</t>
+  </si>
+  <si>
+    <t>SO_DATA_OUT_P[7]</t>
+  </si>
+  <si>
+    <t>CLK13_P</t>
+  </si>
+  <si>
+    <t>PC7 </t>
+  </si>
+  <si>
+    <t>SO_LCLK_IN_N[1]</t>
+  </si>
+  <si>
+    <t>SO_LCLK_OUT_N[1]</t>
+  </si>
+  <si>
+    <t>RESERVED</t>
+  </si>
+  <si>
+    <t>PC8 </t>
+  </si>
+  <si>
+    <t>SO_LCLK_IN_P[1]</t>
+  </si>
+  <si>
+    <t>SO_LCLK_OUT_P[1]</t>
+  </si>
+  <si>
+    <t>PC9 </t>
+  </si>
+  <si>
+    <t>SO_FRAME_IN_N[1]</t>
+  </si>
+  <si>
+    <t>SO_FRAME_OUT_N[1]</t>
+  </si>
+  <si>
+    <t>MVDD</t>
+  </si>
+  <si>
+    <t>PC10 </t>
+  </si>
+  <si>
+    <t>SO_FRAME_IN_P[1]</t>
+  </si>
+  <si>
+    <t>SO_FRAME_OUT_P[1]</t>
+  </si>
+  <si>
+    <t>MVSS</t>
+  </si>
+  <si>
+    <t>PC11 </t>
+  </si>
+  <si>
+    <t>SO_RD_WAIT_OUT_N[1]</t>
+  </si>
+  <si>
+    <t>SO_RD_WAIT_IN_N[1]</t>
+  </si>
+  <si>
+    <t>COLID0</t>
+  </si>
+  <si>
+    <t>PC12 </t>
+  </si>
+  <si>
+    <t>SO_RD_WAIT_OUT_P[1]</t>
+  </si>
+  <si>
+    <t>SO_RD_WAIT_IN_P[1]</t>
+  </si>
+  <si>
+    <t>COLID1</t>
+  </si>
+  <si>
+    <t>PC13 </t>
+  </si>
+  <si>
+    <t>SO_WR_WAIT_OUT_N[1]</t>
+  </si>
+  <si>
+    <t>SO_WR_WAIT_IN_N[1]</t>
+  </si>
+  <si>
+    <t>COLID2</t>
+  </si>
+  <si>
+    <t>PC14 </t>
+  </si>
+  <si>
+    <t>SO_WR_WAIT_OUT_P[1]</t>
+  </si>
+  <si>
+    <t>SO_WR_WAIT_IN_P[1]</t>
+  </si>
+  <si>
+    <t>COLID3</t>
+  </si>
+  <si>
+    <t>PC15 </t>
+  </si>
+  <si>
+    <t>ROWID0</t>
+  </si>
+  <si>
+    <t>PC16 </t>
+  </si>
+  <si>
+    <t>ROWID1</t>
+  </si>
+  <si>
+    <t>PC17 </t>
+  </si>
+  <si>
+    <t>ROWID2</t>
+  </si>
+  <si>
+    <t>PC18 </t>
+  </si>
+  <si>
+    <t>ROWID3</t>
+  </si>
+  <si>
+    <t>PC19 </t>
+  </si>
+  <si>
+    <t>RESET2B</t>
+  </si>
+  <si>
+    <t>PC20 </t>
+  </si>
+  <si>
+    <t>RESET6B</t>
   </si>
   <si>
     <t>PC21</t>
   </si>
   <si>
-    <t>5V</t>
-  </si>
-  <si>
-    <t>PC22</t>
-  </si>
-  <si>
-    <t>3.3V</t>
-  </si>
-  <si>
-    <t>PC23</t>
-  </si>
-  <si>
-    <t>MVDD</t>
-  </si>
-  <si>
-    <t>PC24</t>
-  </si>
-  <si>
-    <t>MVSS</t>
-  </si>
-  <si>
-    <t>PC25</t>
-  </si>
-  <si>
-    <t>RESERVED</t>
-  </si>
-  <si>
-    <t>PC26</t>
-  </si>
-  <si>
-    <t>PC27</t>
-  </si>
-  <si>
-    <t>RESET1B</t>
-  </si>
-  <si>
-    <t>PC28</t>
+    <t>RESET10B</t>
+  </si>
+  <si>
+    <t>PC22 </t>
+  </si>
+  <si>
+    <t>RESET14B</t>
+  </si>
+  <si>
+    <t>PC23 </t>
+  </si>
+  <si>
+    <t>CLK2_N</t>
+  </si>
+  <si>
+    <t>PC24 </t>
+  </si>
+  <si>
+    <t>CLK2_P</t>
+  </si>
+  <si>
+    <t>PC25 </t>
+  </si>
+  <si>
+    <t>CLK6_N</t>
+  </si>
+  <si>
+    <t>PC26 </t>
+  </si>
+  <si>
+    <t>CLK6_P</t>
+  </si>
+  <si>
+    <t>PC27 </t>
+  </si>
+  <si>
+    <t>CLK10_N</t>
+  </si>
+  <si>
+    <t>PC28 </t>
+  </si>
+  <si>
+    <t>CLK10_P</t>
   </si>
   <si>
     <t>PC29</t>
   </si>
   <si>
-    <t>RESET5B</t>
-  </si>
-  <si>
-    <t>PC30</t>
+    <t>CLK14_N</t>
+  </si>
+  <si>
+    <t>PC30 </t>
+  </si>
+  <si>
+    <t>CLK14_P</t>
   </si>
   <si>
     <t>PC31</t>
   </si>
   <si>
-    <t>CLK1_N</t>
-  </si>
-  <si>
-    <t>PC32</t>
-  </si>
-  <si>
-    <t>CLK1_P</t>
-  </si>
-  <si>
-    <t>PC33</t>
-  </si>
-  <si>
-    <t>CLK5_N</t>
-  </si>
-  <si>
-    <t>PC34</t>
-  </si>
-  <si>
-    <t>CLK5_P</t>
-  </si>
-  <si>
-    <t>PC35</t>
-  </si>
-  <si>
-    <t>CLK9_N</t>
-  </si>
-  <si>
-    <t>PC36</t>
-  </si>
-  <si>
-    <t>CLK9_P</t>
-  </si>
-  <si>
-    <t>PC37</t>
-  </si>
-  <si>
-    <t>CLK13_N</t>
-  </si>
-  <si>
-    <t>PC38</t>
-  </si>
-  <si>
-    <t>CLK13_P</t>
-  </si>
-  <si>
-    <t>PC39</t>
+    <t>SO_LCLK_IN_N[2]</t>
+  </si>
+  <si>
+    <t>SO_LCLK_OUT_N[2]</t>
+  </si>
+  <si>
+    <t>RESET3B</t>
+  </si>
+  <si>
+    <t>PC32 </t>
+  </si>
+  <si>
+    <t>SO_LCLK_IN_P[2]</t>
+  </si>
+  <si>
+    <t>SO_LCLK_OUT_P[2]</t>
+  </si>
+  <si>
+    <t>RESET7B</t>
+  </si>
+  <si>
+    <t>PC33 </t>
+  </si>
+  <si>
+    <t>SO_FRAME_IN_N[2]</t>
+  </si>
+  <si>
+    <t>SO_FRAME_OUT_N[2]</t>
+  </si>
+  <si>
+    <t>RESET11B</t>
+  </si>
+  <si>
+    <t>PC34 </t>
+  </si>
+  <si>
+    <t>SO_FRAME_IN_P[2]</t>
+  </si>
+  <si>
+    <t>SO_FRAME_OUT_P[2]</t>
+  </si>
+  <si>
+    <t>RESET15B</t>
+  </si>
+  <si>
+    <t>PC35 </t>
+  </si>
+  <si>
+    <t>CLK3_N</t>
+  </si>
+  <si>
+    <t>PC36 </t>
+  </si>
+  <si>
+    <t>CLK3_P</t>
+  </si>
+  <si>
+    <t>PC37 </t>
+  </si>
+  <si>
+    <t>CLK7_N</t>
+  </si>
+  <si>
+    <t>PC38 </t>
+  </si>
+  <si>
+    <t>CLK7_P</t>
+  </si>
+  <si>
+    <t>PC39 </t>
+  </si>
+  <si>
+    <t>CLK11_N</t>
   </si>
   <si>
     <t>PC40</t>
   </si>
   <si>
+    <t>CLK11_P</t>
+  </si>
+  <si>
     <t>PC41</t>
   </si>
   <si>
+    <t>CLK15_N</t>
+  </si>
+  <si>
     <t>PC42</t>
   </si>
   <si>
+    <t>CLK15_P</t>
+  </si>
+  <si>
     <t>PC43</t>
   </si>
   <si>
-    <t>ROWID0</t>
-  </si>
-  <si>
-    <t>PC44</t>
-  </si>
-  <si>
-    <t>ROWID1</t>
-  </si>
-  <si>
-    <t>PC45</t>
-  </si>
-  <si>
-    <t>ROWID2</t>
-  </si>
-  <si>
-    <t>PC46</t>
-  </si>
-  <si>
-    <t>ROWID3</t>
-  </si>
-  <si>
-    <t>PC47</t>
-  </si>
-  <si>
-    <t>COLID0</t>
-  </si>
-  <si>
-    <t>PC48</t>
-  </si>
-  <si>
-    <t>COLID1</t>
-  </si>
-  <si>
-    <t>PC49</t>
-  </si>
-  <si>
-    <t>COLID2</t>
-  </si>
-  <si>
-    <t>PC50</t>
-  </si>
-  <si>
-    <t>COLID3</t>
-  </si>
-  <si>
-    <t>PC51</t>
-  </si>
-  <si>
-    <t>RESET2B</t>
-  </si>
-  <si>
-    <t>PC52</t>
-  </si>
-  <si>
-    <t>RESET6B</t>
-  </si>
-  <si>
-    <t>PC53</t>
-  </si>
-  <si>
-    <t>RESET10B</t>
-  </si>
-  <si>
-    <t>PC54</t>
-  </si>
-  <si>
-    <t>RESET14B</t>
-  </si>
-  <si>
-    <t>PC55</t>
-  </si>
-  <si>
-    <t>CLK2_N</t>
-  </si>
-  <si>
-    <t>PC56</t>
-  </si>
-  <si>
-    <t>CLK2_P</t>
-  </si>
-  <si>
-    <t>PC57</t>
-  </si>
-  <si>
-    <t>CLK6_N</t>
-  </si>
-  <si>
-    <t>PC58</t>
-  </si>
-  <si>
-    <t>CLK6_P</t>
-  </si>
-  <si>
-    <t>PC59</t>
-  </si>
-  <si>
-    <t>CLK10_N</t>
-  </si>
-  <si>
-    <t>PC60</t>
-  </si>
-  <si>
-    <t>CLK10_P</t>
-  </si>
-  <si>
-    <t>PC61</t>
-  </si>
-  <si>
-    <t>CLK14_N</t>
-  </si>
-  <si>
-    <t>PC62</t>
-  </si>
-  <si>
-    <t>CLK14_P</t>
-  </si>
-  <si>
-    <t>PC63</t>
-  </si>
-  <si>
-    <t>FLAG2</t>
-  </si>
-  <si>
-    <t>PC64</t>
-  </si>
-  <si>
-    <t>FLAG6</t>
-  </si>
-  <si>
-    <t>PC65</t>
-  </si>
-  <si>
-    <t>FLAG10</t>
-  </si>
-  <si>
-    <t>PC66</t>
-  </si>
-  <si>
-    <t>FLAG14</t>
-  </si>
-  <si>
-    <t>PC67</t>
-  </si>
-  <si>
-    <t>PC68</t>
-  </si>
-  <si>
-    <t>PC69</t>
-  </si>
-  <si>
-    <t>PC70</t>
-  </si>
-  <si>
-    <t>PC71</t>
-  </si>
-  <si>
-    <t>PC72</t>
-  </si>
-  <si>
-    <t>PC73</t>
-  </si>
-  <si>
-    <t>PC74</t>
-  </si>
-  <si>
-    <t>PC75</t>
-  </si>
-  <si>
-    <t>RESET3B</t>
-  </si>
-  <si>
-    <t>PC76</t>
-  </si>
-  <si>
-    <t>RESET7B</t>
-  </si>
-  <si>
-    <t>PC77</t>
-  </si>
-  <si>
-    <t>RESET11B</t>
-  </si>
-  <si>
-    <t>PC78</t>
-  </si>
-  <si>
-    <t>RESET15B</t>
-  </si>
-  <si>
-    <t>PC79</t>
-  </si>
-  <si>
-    <t>CLK3_N</t>
-  </si>
-  <si>
-    <t>PC80</t>
-  </si>
-  <si>
-    <t>CLK3_P</t>
-  </si>
-  <si>
-    <t>PC81</t>
-  </si>
-  <si>
-    <t>CLK7_N</t>
-  </si>
-  <si>
-    <t>PC82</t>
-  </si>
-  <si>
-    <t>CLK7_P</t>
-  </si>
-  <si>
-    <t>PC83</t>
-  </si>
-  <si>
-    <t>CLK11_N</t>
-  </si>
-  <si>
-    <t>PC84</t>
-  </si>
-  <si>
-    <t>CLK11_P</t>
-  </si>
-  <si>
-    <t>PC85</t>
-  </si>
-  <si>
-    <t>CLK15_N</t>
-  </si>
-  <si>
-    <t>PC86</t>
-  </si>
-  <si>
-    <t>CLK15_P</t>
-  </si>
-  <si>
-    <t>PC87</t>
-  </si>
-  <si>
-    <t>FLAG3</t>
-  </si>
-  <si>
-    <t>PC88</t>
-  </si>
-  <si>
-    <t>FLAG7</t>
-  </si>
-  <si>
-    <t>PC89</t>
-  </si>
-  <si>
-    <t>FLAG11</t>
-  </si>
-  <si>
-    <t>PC90</t>
-  </si>
-  <si>
-    <t>FLAG15</t>
-  </si>
-  <si>
-    <t>PC91</t>
-  </si>
-  <si>
-    <t>IOVDD</t>
-  </si>
-  <si>
-    <t>PC92</t>
-  </si>
-  <si>
-    <t>PC93</t>
-  </si>
-  <si>
-    <t>PC94</t>
-  </si>
-  <si>
-    <t>PC95</t>
+    <t>SO_LCLK_IN_N[3]</t>
+  </si>
+  <si>
+    <t>SO_LCLK_OUT_N[3]</t>
+  </si>
+  <si>
+    <t>SO_LCLK_IN_P[3]</t>
+  </si>
+  <si>
+    <t>SO_LCLK_OUT_P[3]</t>
+  </si>
+  <si>
+    <t>SO_FRAME_IN_N[3]</t>
+  </si>
+  <si>
+    <t>SO_FRAME_OUT_N[3]</t>
+  </si>
+  <si>
+    <t>SO_FRAME_IN_P[3]</t>
+  </si>
+  <si>
+    <t>SO_FRAME_OUT_P[3]</t>
   </si>
 </sst>
 </file>
@@ -1042,7 +1123,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1088,13 +1169,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFF66"/>
-        <bgColor rgb="FF99FF66"/>
+        <bgColor rgb="FF99FF99"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
-        <bgColor rgb="FFCCFF66"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -1105,8 +1186,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFCCFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAECF00"/>
+        <bgColor rgb="FFCCFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -1117,14 +1210,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF99FF99"/>
-        <bgColor rgb="FF99FF66"/>
+        <fgColor rgb="FF83CAFF"/>
+        <bgColor rgb="FF9999FF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF99FF66"/>
-        <bgColor rgb="FF99FF99"/>
+        <fgColor rgb="FF99FF99"/>
+        <bgColor rgb="FF66FF99"/>
       </patternFill>
     </fill>
   </fills>
@@ -1226,19 +1319,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1250,12 +1331,24 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1276,7 +1369,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF66FFFF"/>
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
@@ -1287,8 +1380,8 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFF66"/>
-      <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
@@ -1305,13 +1398,13 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF99FF99"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF66FFFF"/>
+      <rgbColor rgb="FF83CAFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3399FF"/>
       <rgbColor rgb="FF66FF99"/>
-      <rgbColor rgb="FF99FF66"/>
+      <rgbColor rgb="FFAECF00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -2270,27 +2363,23 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:J123"/>
+  <dimension ref="A1:G123"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M20" activeCellId="0" sqref="M20"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J35" activeCellId="0" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="4.55612244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="21.219387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="23.3877551020408"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.219387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.4744897959184"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.8520408163265"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.4744897959184"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.8520408163265"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.1938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.1938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2306,57 +2395,40 @@
         <v>151</v>
       </c>
       <c r="G1" s="10"/>
-      <c r="I1" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="J1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0"/>
       <c r="B2" s="0"/>
       <c r="C2" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D2" s="10"/>
       <c r="F2" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G2" s="10"/>
-      <c r="I2" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="J2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>158</v>
-      </c>
       <c r="D3" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2379,15 +2451,6 @@
       <c r="G4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="n">
@@ -2398,29 +2461,19 @@
         <v>2</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>9</v>
+        <v>157</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="E5" s="1" t="n">
         <f aca="false">E4+1</f>
         <v>2</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>65</v>
+        <v>159</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" s="1" t="n">
-        <f aca="false">H4+1</f>
-        <v>2</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="J5" s="11" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2431,30 +2484,20 @@
         <v>3</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="E6" s="1" t="n">
         <f aca="false">E5+1</f>
         <v>3</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>57</v>
+        <v>163</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <f aca="false">H5+1</f>
-        <v>3</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2464,30 +2507,20 @@
         <v>4</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="E7" s="1" t="n">
         <f aca="false">E6+1</f>
         <v>4</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>49</v>
+        <v>167</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="1" t="n">
-        <f aca="false">H6+1</f>
-        <v>4</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2497,30 +2530,20 @@
         <v>5</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>33</v>
+        <v>169</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="E8" s="1" t="n">
         <f aca="false">E7+1</f>
         <v>5</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>41</v>
+        <v>171</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="1" t="n">
-        <f aca="false">H7+1</f>
-        <v>5</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2530,30 +2553,20 @@
         <v>6</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="E9" s="1" t="n">
         <f aca="false">E8+1</f>
         <v>6</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="H9" s="1" t="n">
-        <f aca="false">H8+1</f>
-        <v>6</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2563,30 +2576,20 @@
         <v>7</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>43</v>
+        <v>175</v>
       </c>
       <c r="E10" s="1" t="n">
         <f aca="false">E9+1</f>
         <v>7</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>32</v>
+        <v>176</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <f aca="false">H9+1</f>
-        <v>7</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2596,30 +2599,20 @@
         <v>8</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>50</v>
+        <v>178</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>51</v>
+        <v>179</v>
       </c>
       <c r="E11" s="1" t="n">
         <f aca="false">E10+1</f>
         <v>8</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>24</v>
+        <v>180</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="1" t="n">
-        <f aca="false">H10+1</f>
-        <v>8</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2629,30 +2622,20 @@
         <v>9</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>58</v>
+        <v>182</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>59</v>
+        <v>183</v>
       </c>
       <c r="E12" s="1" t="n">
         <f aca="false">E11+1</f>
         <v>9</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>16</v>
+        <v>184</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="1" t="n">
-        <f aca="false">H11+1</f>
-        <v>9</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2662,30 +2645,20 @@
         <v>10</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>66</v>
+        <v>186</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>67</v>
+        <v>187</v>
       </c>
       <c r="E13" s="1" t="n">
         <f aca="false">E12+1</f>
         <v>10</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>8</v>
+        <v>188</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="1" t="n">
-        <f aca="false">H12+1</f>
-        <v>10</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2710,16 +2683,6 @@
       <c r="G14" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="1" t="n">
-        <f aca="false">H13+1</f>
-        <v>11</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13"/>
@@ -2728,30 +2691,20 @@
         <v>12</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>74</v>
+        <v>190</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>75</v>
+        <v>191</v>
       </c>
       <c r="E15" s="1" t="n">
         <f aca="false">E14+1</f>
         <v>12</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="H15" s="1" t="n">
-        <f aca="false">H14+1</f>
-        <v>12</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2761,30 +2714,20 @@
         <v>13</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>82</v>
+        <v>194</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>83</v>
+        <v>195</v>
       </c>
       <c r="E16" s="1" t="n">
         <f aca="false">E15+1</f>
         <v>13</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>72</v>
+        <v>196</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="H16" s="1" t="n">
-        <f aca="false">H15+1</f>
-        <v>13</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2794,30 +2737,20 @@
         <v>14</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>90</v>
+        <v>198</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>87</v>
+        <v>199</v>
       </c>
       <c r="E17" s="1" t="n">
         <f aca="false">E16+1</f>
         <v>14</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="H17" s="1" t="n">
-        <f aca="false">H16+1</f>
-        <v>14</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2827,30 +2760,20 @@
         <v>15</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>94</v>
+        <v>202</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>95</v>
+        <v>203</v>
       </c>
       <c r="E18" s="1" t="n">
         <f aca="false">E17+1</f>
         <v>15</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>73</v>
+        <v>204</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="H18" s="1" t="n">
-        <f aca="false">H17+1</f>
-        <v>15</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2860,30 +2783,20 @@
         <v>16</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="E19" s="1" t="n">
         <f aca="false">E18+1</f>
         <v>16</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="H19" s="1" t="n">
-        <f aca="false">H18+1</f>
-        <v>16</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>37</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2893,30 +2806,20 @@
         <v>17</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>111</v>
+        <v>207</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>102</v>
+        <v>208</v>
       </c>
       <c r="E20" s="1" t="n">
         <f aca="false">E19+1</f>
         <v>17</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>86</v>
+      <c r="F20" s="14" t="s">
+        <v>209</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H20" s="1" t="n">
-        <f aca="false">H19+1</f>
-        <v>17</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2926,30 +2829,20 @@
         <v>18</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>115</v>
+        <v>211</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>107</v>
+        <v>212</v>
       </c>
       <c r="E21" s="1" t="n">
         <f aca="false">E20+1</f>
         <v>18</v>
       </c>
-      <c r="F21" s="11" t="s">
-        <v>89</v>
+      <c r="F21" s="14" t="s">
+        <v>209</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="H21" s="1" t="n">
-        <f aca="false">H20+1</f>
-        <v>18</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2959,30 +2852,20 @@
         <v>19</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>110</v>
+        <v>214</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>101</v>
+        <v>215</v>
       </c>
       <c r="E22" s="1" t="n">
         <f aca="false">E21+1</f>
         <v>19</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>70</v>
+      <c r="F22" s="14" t="s">
+        <v>216</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H22" s="1" t="n">
-        <f aca="false">H21+1</f>
-        <v>19</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2992,30 +2875,20 @@
         <v>20</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>114</v>
+        <v>218</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>106</v>
+        <v>219</v>
       </c>
       <c r="E23" s="1" t="n">
         <f aca="false">E22+1</f>
         <v>20</v>
       </c>
-      <c r="F23" s="11" t="s">
-        <v>78</v>
+      <c r="F23" s="14" t="s">
+        <v>216</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H23" s="1" t="n">
-        <f aca="false">H22+1</f>
-        <v>20</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3040,16 +2913,6 @@
       <c r="G24" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H24" s="1" t="n">
-        <f aca="false">H23+1</f>
-        <v>21</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13"/>
@@ -3058,30 +2921,20 @@
         <v>22</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>118</v>
+        <v>221</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>119</v>
+        <v>222</v>
       </c>
       <c r="E25" s="1" t="n">
         <f aca="false">E24+1</f>
         <v>22</v>
       </c>
-      <c r="F25" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H25" s="1" t="n">
-        <f aca="false">H24+1</f>
-        <v>22</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="J25" s="11" t="s">
-        <v>188</v>
+      <c r="F25" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3091,30 +2944,20 @@
         <v>23</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="E26" s="1" t="n">
         <f aca="false">E25+1</f>
         <v>23</v>
       </c>
-      <c r="F26" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="1" t="n">
-        <f aca="false">H25+1</f>
-        <v>23</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>190</v>
+      <c r="F26" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3124,30 +2967,20 @@
         <v>24</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="E27" s="1" t="n">
         <f aca="false">E26+1</f>
         <v>24</v>
       </c>
-      <c r="F27" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" s="1" t="n">
-        <f aca="false">H26+1</f>
-        <v>24</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="J27" s="11" t="s">
-        <v>192</v>
+      <c r="F27" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3157,30 +2990,20 @@
         <v>25</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="E28" s="1" t="n">
         <f aca="false">E27+1</f>
         <v>25</v>
       </c>
-      <c r="F28" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H28" s="1" t="n">
-        <f aca="false">H27+1</f>
-        <v>25</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>194</v>
+      <c r="F28" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3190,30 +3013,20 @@
         <v>26</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="E29" s="1" t="n">
         <f aca="false">E28+1</f>
         <v>26</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="H29" s="1" t="n">
-        <f aca="false">H28+1</f>
-        <v>26</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J29" s="12" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3223,30 +3036,20 @@
         <v>27</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="E30" s="1" t="n">
         <f aca="false">E29+1</f>
         <v>27</v>
       </c>
-      <c r="F30" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H30" s="1" t="n">
-        <f aca="false">H29+1</f>
-        <v>27</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>196</v>
+      <c r="F30" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3256,30 +3059,20 @@
         <v>28</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>138</v>
+        <v>241</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>139</v>
+        <v>242</v>
       </c>
       <c r="E31" s="1" t="n">
         <f aca="false">E30+1</f>
         <v>28</v>
       </c>
-      <c r="F31" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H31" s="1" t="n">
-        <f aca="false">H30+1</f>
-        <v>28</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="J31" s="11" t="s">
-        <v>198</v>
+      <c r="F31" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3289,30 +3082,20 @@
         <v>29</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>141</v>
+        <v>245</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>142</v>
+        <v>246</v>
       </c>
       <c r="E32" s="1" t="n">
         <f aca="false">E31+1</f>
         <v>29</v>
       </c>
-      <c r="F32" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H32" s="1" t="n">
-        <f aca="false">H31+1</f>
-        <v>29</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="J32" s="11" t="s">
-        <v>200</v>
+      <c r="F32" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3322,34 +3105,24 @@
         <v>30</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>145</v>
+        <v>249</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>146</v>
+        <v>250</v>
       </c>
       <c r="E33" s="1" t="n">
         <f aca="false">E32+1</f>
         <v>30</v>
       </c>
-      <c r="F33" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H33" s="1" t="n">
-        <f aca="false">H32+1</f>
-        <v>30</v>
-      </c>
-      <c r="I33" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="J33" s="11" t="s">
-        <v>202</v>
+      <c r="F33" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="14" t="n">
+      <c r="A34" s="15" t="n">
         <v>1</v>
       </c>
       <c r="B34" s="1" t="n">
@@ -3372,316 +3145,216 @@
       <c r="G34" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H34" s="1" t="n">
-        <f aca="false">H33+1</f>
-        <v>31</v>
-      </c>
-      <c r="I34" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J34" s="12" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="14"/>
+      <c r="A35" s="15"/>
       <c r="B35" s="1" t="n">
         <f aca="false">B34+1</f>
         <v>32</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>10</v>
+      <c r="C35" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>254</v>
       </c>
       <c r="E35" s="1" t="n">
         <f aca="false">E34+1</f>
         <v>32</v>
       </c>
-      <c r="F35" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="H35" s="1" t="n">
-        <f aca="false">H34+1</f>
-        <v>32</v>
-      </c>
-      <c r="I35" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="J35" s="15" t="s">
-        <v>204</v>
+      <c r="F35" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="14"/>
+      <c r="A36" s="15"/>
       <c r="B36" s="1" t="n">
         <f aca="false">B35+1</f>
         <v>33</v>
       </c>
-      <c r="C36" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>18</v>
+      <c r="C36" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>258</v>
       </c>
       <c r="E36" s="1" t="n">
         <f aca="false">E35+1</f>
         <v>33</v>
       </c>
-      <c r="F36" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H36" s="1" t="n">
-        <f aca="false">H35+1</f>
-        <v>33</v>
-      </c>
-      <c r="I36" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="J36" s="15" t="s">
-        <v>206</v>
+      <c r="F36" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="14"/>
+      <c r="A37" s="15"/>
       <c r="B37" s="1" t="n">
         <f aca="false">B36+1</f>
         <v>34</v>
       </c>
-      <c r="C37" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>26</v>
+      <c r="C37" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>261</v>
       </c>
       <c r="E37" s="1" t="n">
         <f aca="false">E36+1</f>
         <v>34</v>
       </c>
-      <c r="F37" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="H37" s="1" t="n">
-        <f aca="false">H36+1</f>
-        <v>34</v>
-      </c>
-      <c r="I37" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="J37" s="15" t="s">
-        <v>208</v>
+      <c r="F37" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="14"/>
+      <c r="A38" s="15"/>
       <c r="B38" s="1" t="n">
         <f aca="false">B37+1</f>
         <v>35</v>
       </c>
-      <c r="C38" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>34</v>
+      <c r="C38" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>265</v>
       </c>
       <c r="E38" s="1" t="n">
         <f aca="false">E37+1</f>
         <v>35</v>
       </c>
-      <c r="F38" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G38" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="H38" s="1" t="n">
-        <f aca="false">H37+1</f>
-        <v>35</v>
-      </c>
-      <c r="I38" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="J38" s="15" t="s">
-        <v>209</v>
+      <c r="F38" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="14"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="1" t="n">
         <f aca="false">B38+1</f>
         <v>36</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="E39" s="1" t="n">
         <f aca="false">E38+1</f>
         <v>36</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="H39" s="1" t="n">
-        <f aca="false">H38+1</f>
-        <v>36</v>
-      </c>
-      <c r="I39" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J39" s="12" t="s">
-        <v>37</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="14"/>
+      <c r="A40" s="15"/>
       <c r="B40" s="1" t="n">
         <f aca="false">B39+1</f>
         <v>37</v>
       </c>
-      <c r="C40" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>43</v>
+      <c r="C40" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>269</v>
       </c>
       <c r="E40" s="1" t="n">
         <f aca="false">E39+1</f>
         <v>37</v>
       </c>
-      <c r="F40" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G40" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H40" s="1" t="n">
-        <f aca="false">H39+1</f>
-        <v>37</v>
-      </c>
-      <c r="I40" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="J40" s="15" t="s">
-        <v>211</v>
+      <c r="F40" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="14"/>
+      <c r="A41" s="15"/>
       <c r="B41" s="1" t="n">
         <f aca="false">B40+1</f>
         <v>38</v>
       </c>
-      <c r="C41" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>51</v>
+      <c r="C41" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>273</v>
       </c>
       <c r="E41" s="1" t="n">
         <f aca="false">E40+1</f>
         <v>38</v>
       </c>
-      <c r="F41" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H41" s="1" t="n">
-        <f aca="false">H40+1</f>
-        <v>38</v>
-      </c>
-      <c r="I41" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="J41" s="15" t="s">
-        <v>212</v>
+      <c r="F41" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="14"/>
+      <c r="A42" s="15"/>
       <c r="B42" s="1" t="n">
         <f aca="false">B41+1</f>
         <v>39</v>
       </c>
-      <c r="C42" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>59</v>
+      <c r="C42" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>277</v>
       </c>
       <c r="E42" s="1" t="n">
         <f aca="false">E41+1</f>
         <v>39</v>
       </c>
-      <c r="F42" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H42" s="1" t="n">
-        <f aca="false">H41+1</f>
-        <v>39</v>
-      </c>
-      <c r="I42" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="J42" s="15" t="s">
-        <v>214</v>
+      <c r="F42" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="14"/>
+      <c r="A43" s="15"/>
       <c r="B43" s="1" t="n">
         <f aca="false">B42+1</f>
         <v>40</v>
       </c>
-      <c r="C43" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>67</v>
+      <c r="C43" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>281</v>
       </c>
       <c r="E43" s="1" t="n">
         <f aca="false">E42+1</f>
         <v>40</v>
       </c>
-      <c r="F43" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G43" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="H43" s="1" t="n">
-        <f aca="false">H42+1</f>
-        <v>40</v>
-      </c>
-      <c r="I43" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="J43" s="15" t="s">
-        <v>215</v>
+      <c r="F43" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="14"/>
+      <c r="A44" s="15"/>
       <c r="B44" s="1" t="n">
         <f aca="false">B43+1</f>
         <v>41</v>
@@ -3702,316 +3375,216 @@
       <c r="G44" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H44" s="1" t="n">
-        <f aca="false">H43+1</f>
-        <v>41</v>
-      </c>
-      <c r="I44" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J44" s="12" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="14"/>
+      <c r="A45" s="15"/>
       <c r="B45" s="1" t="n">
         <f aca="false">B44+1</f>
         <v>42</v>
       </c>
-      <c r="C45" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>75</v>
+      <c r="C45" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>191</v>
       </c>
       <c r="E45" s="1" t="n">
         <f aca="false">E44+1</f>
         <v>42</v>
       </c>
-      <c r="F45" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="G45" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="H45" s="1" t="n">
-        <f aca="false">H44+1</f>
-        <v>42</v>
-      </c>
-      <c r="I45" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="J45" s="15" t="s">
-        <v>217</v>
+      <c r="F45" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="14"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="1" t="n">
         <f aca="false">B45+1</f>
         <v>43</v>
       </c>
-      <c r="C46" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>83</v>
+      <c r="C46" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>195</v>
       </c>
       <c r="E46" s="1" t="n">
         <f aca="false">E45+1</f>
         <v>43</v>
       </c>
-      <c r="F46" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G46" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="H46" s="1" t="n">
-        <f aca="false">H45+1</f>
-        <v>43</v>
-      </c>
-      <c r="I46" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="J46" s="15" t="s">
-        <v>219</v>
+      <c r="F46" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="14"/>
+      <c r="A47" s="15"/>
       <c r="B47" s="1" t="n">
         <f aca="false">B46+1</f>
         <v>44</v>
       </c>
-      <c r="C47" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>87</v>
+      <c r="C47" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>199</v>
       </c>
       <c r="E47" s="1" t="n">
         <f aca="false">E46+1</f>
         <v>44</v>
       </c>
-      <c r="F47" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="H47" s="1" t="n">
-        <f aca="false">H46+1</f>
-        <v>44</v>
-      </c>
-      <c r="I47" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="J47" s="15" t="s">
-        <v>221</v>
+      <c r="F47" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="14"/>
+      <c r="A48" s="15"/>
       <c r="B48" s="1" t="n">
         <f aca="false">B47+1</f>
         <v>45</v>
       </c>
-      <c r="C48" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>95</v>
+      <c r="C48" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>203</v>
       </c>
       <c r="E48" s="1" t="n">
         <f aca="false">E47+1</f>
         <v>45</v>
       </c>
-      <c r="F48" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="H48" s="1" t="n">
-        <f aca="false">H47+1</f>
-        <v>45</v>
-      </c>
-      <c r="I48" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="J48" s="15" t="s">
-        <v>223</v>
+      <c r="F48" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="14"/>
+      <c r="A49" s="15"/>
       <c r="B49" s="1" t="n">
         <f aca="false">B48+1</f>
         <v>46</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="E49" s="16" t="n">
+        <v>206</v>
+      </c>
+      <c r="E49" s="18" t="n">
         <f aca="false">E48+1</f>
         <v>46</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="H49" s="16" t="n">
-        <f aca="false">H48+1</f>
-        <v>46</v>
-      </c>
-      <c r="I49" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="J49" s="17" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="14"/>
+      <c r="A50" s="15"/>
       <c r="B50" s="1" t="n">
         <f aca="false">B49+1</f>
         <v>47</v>
       </c>
-      <c r="C50" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>102</v>
+      <c r="C50" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>208</v>
       </c>
       <c r="E50" s="1" t="n">
         <f aca="false">E49+1</f>
         <v>47</v>
       </c>
-      <c r="F50" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="H50" s="1" t="n">
-        <f aca="false">H49+1</f>
-        <v>47</v>
-      </c>
-      <c r="I50" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="J50" s="15" t="s">
-        <v>225</v>
+      <c r="F50" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="14"/>
+      <c r="A51" s="15"/>
       <c r="B51" s="1" t="n">
         <f aca="false">B50+1</f>
         <v>48</v>
       </c>
-      <c r="C51" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>107</v>
+      <c r="C51" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>212</v>
       </c>
       <c r="E51" s="1" t="n">
         <f aca="false">E50+1</f>
         <v>48</v>
       </c>
-      <c r="F51" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="G51" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="H51" s="1" t="n">
-        <f aca="false">H50+1</f>
-        <v>48</v>
-      </c>
-      <c r="I51" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="J51" s="15" t="s">
-        <v>227</v>
+      <c r="F51" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="G51" s="17" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="14"/>
+      <c r="A52" s="15"/>
       <c r="B52" s="1" t="n">
         <f aca="false">B51+1</f>
         <v>49</v>
       </c>
-      <c r="C52" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>101</v>
+      <c r="C52" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>215</v>
       </c>
       <c r="E52" s="1" t="n">
         <f aca="false">E51+1</f>
         <v>49</v>
       </c>
-      <c r="F52" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="H52" s="1" t="n">
-        <f aca="false">H51+1</f>
-        <v>49</v>
-      </c>
-      <c r="I52" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="J52" s="15" t="s">
-        <v>229</v>
+      <c r="F52" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="G52" s="17" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="14"/>
+      <c r="A53" s="15"/>
       <c r="B53" s="1" t="n">
         <f aca="false">B52+1</f>
         <v>50</v>
       </c>
-      <c r="C53" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>106</v>
+      <c r="C53" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>219</v>
       </c>
       <c r="E53" s="1" t="n">
         <f aca="false">E52+1</f>
         <v>50</v>
       </c>
-      <c r="F53" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="H53" s="1" t="n">
-        <f aca="false">H52+1</f>
-        <v>50</v>
-      </c>
-      <c r="I53" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="J53" s="15" t="s">
-        <v>231</v>
+      <c r="F53" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="G53" s="17" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="14"/>
+      <c r="A54" s="15"/>
       <c r="B54" s="1" t="n">
         <f aca="false">B53+1</f>
         <v>51</v>
@@ -4032,316 +3605,216 @@
       <c r="G54" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H54" s="1" t="n">
-        <f aca="false">H53+1</f>
-        <v>51</v>
-      </c>
-      <c r="I54" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J54" s="12" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="14"/>
+      <c r="A55" s="15"/>
       <c r="B55" s="1" t="n">
         <f aca="false">B54+1</f>
         <v>52</v>
       </c>
-      <c r="C55" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>119</v>
+      <c r="C55" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>222</v>
       </c>
       <c r="E55" s="1" t="n">
         <f aca="false">E54+1</f>
         <v>52</v>
       </c>
-      <c r="F55" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G55" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="H55" s="1" t="n">
-        <f aca="false">H54+1</f>
-        <v>52</v>
-      </c>
-      <c r="I55" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="J55" s="15" t="s">
-        <v>232</v>
+      <c r="F55" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="G55" s="17" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="14"/>
+      <c r="A56" s="15"/>
       <c r="B56" s="1" t="n">
         <f aca="false">B55+1</f>
         <v>53</v>
       </c>
-      <c r="C56" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>123</v>
+      <c r="C56" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>226</v>
       </c>
       <c r="E56" s="1" t="n">
         <f aca="false">E55+1</f>
         <v>53</v>
       </c>
-      <c r="F56" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H56" s="1" t="n">
-        <f aca="false">H55+1</f>
-        <v>53</v>
-      </c>
-      <c r="I56" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="J56" s="15" t="s">
-        <v>233</v>
+      <c r="F56" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="G56" s="17" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="14"/>
+      <c r="A57" s="15"/>
       <c r="B57" s="1" t="n">
         <f aca="false">B56+1</f>
         <v>54</v>
       </c>
-      <c r="C57" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>127</v>
+      <c r="C57" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>230</v>
       </c>
       <c r="E57" s="1" t="n">
         <f aca="false">E56+1</f>
         <v>54</v>
       </c>
-      <c r="F57" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H57" s="1" t="n">
-        <f aca="false">H56+1</f>
-        <v>54</v>
-      </c>
-      <c r="I57" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="J57" s="15" t="s">
-        <v>234</v>
+      <c r="F57" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="G57" s="17" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="14"/>
+      <c r="A58" s="15"/>
       <c r="B58" s="1" t="n">
         <f aca="false">B57+1</f>
         <v>55</v>
       </c>
-      <c r="C58" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>131</v>
+      <c r="C58" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>234</v>
       </c>
       <c r="E58" s="1" t="n">
         <f aca="false">E57+1</f>
         <v>55</v>
       </c>
-      <c r="F58" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G58" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H58" s="1" t="n">
-        <f aca="false">H57+1</f>
-        <v>55</v>
-      </c>
-      <c r="I58" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="J58" s="15" t="s">
-        <v>235</v>
+      <c r="F58" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="G58" s="17" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="14"/>
+      <c r="A59" s="15"/>
       <c r="B59" s="1" t="n">
         <f aca="false">B58+1</f>
         <v>56</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="E59" s="1" t="n">
         <f aca="false">E58+1</f>
         <v>56</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="H59" s="1" t="n">
-        <f aca="false">H58+1</f>
-        <v>56</v>
-      </c>
-      <c r="I59" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J59" s="12" t="s">
-        <v>37</v>
+        <v>206</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="14"/>
+      <c r="A60" s="15"/>
       <c r="B60" s="1" t="n">
         <f aca="false">B59+1</f>
         <v>57</v>
       </c>
-      <c r="C60" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>135</v>
+      <c r="C60" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>238</v>
       </c>
       <c r="E60" s="1" t="n">
         <f aca="false">E59+1</f>
         <v>57</v>
       </c>
-      <c r="F60" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G60" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="H60" s="1" t="n">
-        <f aca="false">H59+1</f>
-        <v>57</v>
-      </c>
-      <c r="I60" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="J60" s="15" t="s">
-        <v>237</v>
+      <c r="F60" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="G60" s="17" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="14"/>
+      <c r="A61" s="15"/>
       <c r="B61" s="1" t="n">
         <f aca="false">B60+1</f>
         <v>58</v>
       </c>
-      <c r="C61" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="D61" s="15" t="s">
-        <v>139</v>
+      <c r="C61" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>242</v>
       </c>
       <c r="E61" s="1" t="n">
         <f aca="false">E60+1</f>
         <v>58</v>
       </c>
-      <c r="F61" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="G61" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H61" s="1" t="n">
-        <f aca="false">H60+1</f>
-        <v>58</v>
-      </c>
-      <c r="I61" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="J61" s="15" t="s">
-        <v>239</v>
+      <c r="F61" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="G61" s="17" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="14"/>
+      <c r="A62" s="15"/>
       <c r="B62" s="1" t="n">
         <f aca="false">B61+1</f>
         <v>59</v>
       </c>
-      <c r="C62" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="D62" s="15" t="s">
-        <v>142</v>
+      <c r="C62" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>246</v>
       </c>
       <c r="E62" s="1" t="n">
         <f aca="false">E61+1</f>
         <v>59</v>
       </c>
-      <c r="F62" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G62" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H62" s="1" t="n">
-        <f aca="false">H61+1</f>
-        <v>59</v>
-      </c>
-      <c r="I62" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="J62" s="15" t="s">
-        <v>241</v>
+      <c r="F62" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="G62" s="17" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="14"/>
+      <c r="A63" s="15"/>
       <c r="B63" s="1" t="n">
         <f aca="false">B62+1</f>
         <v>60</v>
       </c>
-      <c r="C63" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D63" s="15" t="s">
-        <v>146</v>
+      <c r="C63" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>250</v>
       </c>
       <c r="E63" s="1" t="n">
         <f aca="false">E62+1</f>
         <v>60</v>
       </c>
-      <c r="F63" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G63" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="H63" s="1" t="n">
-        <f aca="false">H62+1</f>
-        <v>60</v>
-      </c>
-      <c r="I63" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="J63" s="15" t="s">
-        <v>243</v>
+      <c r="F63" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="G63" s="17" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="18" t="n">
+      <c r="A64" s="19" t="n">
         <v>2</v>
       </c>
       <c r="B64" s="1" t="n">
@@ -4364,316 +3837,216 @@
       <c r="G64" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H64" s="1" t="n">
-        <f aca="false">H63+1</f>
-        <v>61</v>
-      </c>
-      <c r="I64" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J64" s="12" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="18"/>
+      <c r="A65" s="19"/>
       <c r="B65" s="1" t="n">
         <f aca="false">B64+1</f>
         <v>62</v>
       </c>
-      <c r="C65" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="19" t="s">
-        <v>10</v>
+      <c r="C65" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>317</v>
       </c>
       <c r="E65" s="1" t="n">
         <f aca="false">E64+1</f>
         <v>62</v>
       </c>
-      <c r="F65" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="G65" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H65" s="1" t="n">
-        <f aca="false">H64+1</f>
-        <v>62</v>
-      </c>
-      <c r="I65" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="J65" s="19" t="s">
-        <v>245</v>
+      <c r="F65" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="G65" s="20" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="18"/>
+      <c r="A66" s="19"/>
       <c r="B66" s="1" t="n">
         <f aca="false">B65+1</f>
         <v>63</v>
       </c>
-      <c r="C66" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D66" s="19" t="s">
-        <v>18</v>
+      <c r="C66" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>321</v>
       </c>
       <c r="E66" s="1" t="n">
         <f aca="false">E65+1</f>
         <v>63</v>
       </c>
-      <c r="F66" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G66" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="H66" s="1" t="n">
-        <f aca="false">H65+1</f>
-        <v>63</v>
-      </c>
-      <c r="I66" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="J66" s="19" t="s">
-        <v>247</v>
+      <c r="F66" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="G66" s="20" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="18"/>
+      <c r="A67" s="19"/>
       <c r="B67" s="1" t="n">
         <f aca="false">B66+1</f>
         <v>64</v>
       </c>
-      <c r="C67" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D67" s="19" t="s">
-        <v>26</v>
+      <c r="C67" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>325</v>
       </c>
       <c r="E67" s="1" t="n">
         <f aca="false">E66+1</f>
         <v>64</v>
       </c>
-      <c r="F67" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G67" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="H67" s="1" t="n">
-        <f aca="false">H66+1</f>
-        <v>64</v>
-      </c>
-      <c r="I67" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="J67" s="19" t="s">
-        <v>249</v>
+      <c r="F67" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="G67" s="20" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="18"/>
+      <c r="A68" s="19"/>
       <c r="B68" s="1" t="n">
         <f aca="false">B67+1</f>
         <v>65</v>
       </c>
-      <c r="C68" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D68" s="19" t="s">
-        <v>34</v>
+      <c r="C68" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>329</v>
       </c>
       <c r="E68" s="1" t="n">
         <f aca="false">E67+1</f>
         <v>65</v>
       </c>
-      <c r="F68" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="G68" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="H68" s="1" t="n">
-        <f aca="false">H67+1</f>
-        <v>65</v>
-      </c>
-      <c r="I68" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="J68" s="19" t="s">
-        <v>251</v>
+      <c r="F68" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="G68" s="20" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="18"/>
+      <c r="A69" s="19"/>
       <c r="B69" s="1" t="n">
         <f aca="false">B68+1</f>
         <v>66</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="E69" s="1" t="n">
         <f aca="false">E68+1</f>
         <v>66</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="G69" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="H69" s="1" t="n">
-        <f aca="false">H68+1</f>
-        <v>66</v>
-      </c>
-      <c r="I69" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J69" s="12" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="18"/>
+      <c r="A70" s="19"/>
       <c r="B70" s="1" t="n">
         <f aca="false">B69+1</f>
         <v>67</v>
       </c>
-      <c r="C70" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D70" s="19" t="s">
-        <v>43</v>
+      <c r="C70" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>175</v>
       </c>
       <c r="E70" s="1" t="n">
         <f aca="false">E69+1</f>
         <v>67</v>
       </c>
-      <c r="F70" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G70" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="H70" s="1" t="n">
-        <f aca="false">H69+1</f>
-        <v>67</v>
-      </c>
-      <c r="I70" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="J70" s="19" t="s">
-        <v>253</v>
+      <c r="F70" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="G70" s="20" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="18"/>
+      <c r="A71" s="19"/>
       <c r="B71" s="1" t="n">
         <f aca="false">B70+1</f>
         <v>68</v>
       </c>
-      <c r="C71" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D71" s="19" t="s">
-        <v>51</v>
+      <c r="C71" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>179</v>
       </c>
       <c r="E71" s="1" t="n">
         <f aca="false">E70+1</f>
         <v>68</v>
       </c>
-      <c r="F71" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G71" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H71" s="1" t="n">
-        <f aca="false">H70+1</f>
-        <v>68</v>
-      </c>
-      <c r="I71" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="J71" s="19" t="s">
-        <v>255</v>
+      <c r="F71" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="G71" s="20" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="18"/>
+      <c r="A72" s="19"/>
       <c r="B72" s="1" t="n">
         <f aca="false">B71+1</f>
         <v>69</v>
       </c>
-      <c r="C72" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D72" s="19" t="s">
-        <v>59</v>
+      <c r="C72" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>183</v>
       </c>
       <c r="E72" s="1" t="n">
         <f aca="false">E71+1</f>
         <v>69</v>
       </c>
-      <c r="F72" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H72" s="1" t="n">
-        <f aca="false">H71+1</f>
-        <v>69</v>
-      </c>
-      <c r="I72" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="J72" s="19" t="s">
-        <v>257</v>
+      <c r="F72" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="G72" s="20" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="18"/>
+      <c r="A73" s="19"/>
       <c r="B73" s="1" t="n">
         <f aca="false">B72+1</f>
         <v>70</v>
       </c>
-      <c r="C73" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D73" s="19" t="s">
-        <v>67</v>
+      <c r="C73" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>187</v>
       </c>
       <c r="E73" s="1" t="n">
         <f aca="false">E72+1</f>
         <v>70</v>
       </c>
-      <c r="F73" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G73" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="H73" s="1" t="n">
-        <f aca="false">H72+1</f>
-        <v>70</v>
-      </c>
-      <c r="I73" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="J73" s="19" t="s">
-        <v>259</v>
+      <c r="F73" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="G73" s="20" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="18"/>
+      <c r="A74" s="19"/>
       <c r="B74" s="1" t="n">
         <f aca="false">B73+1</f>
         <v>71</v>
@@ -4694,316 +4067,171 @@
       <c r="G74" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H74" s="1" t="n">
-        <f aca="false">H73+1</f>
-        <v>71</v>
-      </c>
-      <c r="I74" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J74" s="12" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="18"/>
+      <c r="A75" s="19"/>
       <c r="B75" s="1" t="n">
         <f aca="false">B74+1</f>
         <v>72</v>
       </c>
-      <c r="C75" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D75" s="19" t="s">
-        <v>75</v>
+      <c r="C75" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>191</v>
       </c>
       <c r="E75" s="1" t="n">
         <f aca="false">E74+1</f>
         <v>72</v>
       </c>
-      <c r="F75" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="G75" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="H75" s="1" t="n">
-        <f aca="false">H74+1</f>
-        <v>72</v>
-      </c>
-      <c r="I75" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="J75" s="19" t="s">
-        <v>261</v>
+      <c r="F75" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="G75" s="20" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="18"/>
+      <c r="A76" s="19"/>
       <c r="B76" s="1" t="n">
         <f aca="false">B75+1</f>
         <v>73</v>
       </c>
-      <c r="C76" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D76" s="19" t="s">
-        <v>83</v>
+      <c r="C76" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>195</v>
       </c>
       <c r="E76" s="1" t="n">
         <f aca="false">E75+1</f>
         <v>73</v>
       </c>
-      <c r="F76" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="G76" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="H76" s="1" t="n">
-        <f aca="false">H75+1</f>
-        <v>73</v>
-      </c>
-      <c r="I76" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="J76" s="19" t="s">
-        <v>263</v>
+      <c r="F76" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="G76" s="20" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="18"/>
+      <c r="A77" s="19"/>
       <c r="B77" s="1" t="n">
         <f aca="false">B76+1</f>
         <v>74</v>
       </c>
-      <c r="C77" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="D77" s="19" t="s">
-        <v>87</v>
+      <c r="C77" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>199</v>
       </c>
       <c r="E77" s="1" t="n">
         <f aca="false">E76+1</f>
         <v>74</v>
       </c>
-      <c r="F77" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="G77" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="H77" s="1" t="n">
-        <f aca="false">H76+1</f>
-        <v>74</v>
-      </c>
-      <c r="I77" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="J77" s="19" t="s">
-        <v>265</v>
+      <c r="F77" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="G77" s="20" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="18"/>
+      <c r="A78" s="19"/>
       <c r="B78" s="1" t="n">
         <f aca="false">B77+1</f>
         <v>75</v>
       </c>
-      <c r="C78" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="D78" s="19" t="s">
-        <v>95</v>
+      <c r="C78" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>203</v>
       </c>
       <c r="E78" s="1" t="n">
         <f aca="false">E77+1</f>
         <v>75</v>
       </c>
-      <c r="F78" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="G78" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="H78" s="1" t="n">
-        <f aca="false">H77+1</f>
-        <v>75</v>
-      </c>
-      <c r="I78" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="J78" s="19" t="s">
-        <v>267</v>
+      <c r="F78" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="G78" s="20" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="18"/>
+      <c r="A79" s="19"/>
       <c r="B79" s="1" t="n">
         <f aca="false">B78+1</f>
         <v>76</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="E79" s="1" t="n">
-        <f aca="false">E78+1</f>
-        <v>76</v>
-      </c>
-      <c r="F79" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="G79" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="H79" s="1" t="n">
-        <f aca="false">H78+1</f>
-        <v>76</v>
-      </c>
-      <c r="I79" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J79" s="12" t="s">
-        <v>37</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="E79" s="1"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="18"/>
+      <c r="A80" s="19"/>
       <c r="B80" s="1" t="n">
         <f aca="false">B79+1</f>
         <v>77</v>
       </c>
-      <c r="C80" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="D80" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="E80" s="1" t="n">
-        <f aca="false">E79+1</f>
-        <v>77</v>
-      </c>
-      <c r="F80" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="G80" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="H80" s="1" t="n">
-        <f aca="false">H79+1</f>
-        <v>77</v>
-      </c>
-      <c r="I80" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="J80" s="19" t="s">
-        <v>269</v>
-      </c>
+      <c r="C80" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E80" s="1"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="18"/>
+      <c r="A81" s="19"/>
       <c r="B81" s="1" t="n">
         <f aca="false">B80+1</f>
         <v>78</v>
       </c>
-      <c r="C81" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="D81" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="E81" s="1" t="n">
-        <f aca="false">E80+1</f>
-        <v>78</v>
-      </c>
-      <c r="F81" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="G81" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="H81" s="1" t="n">
-        <f aca="false">H80+1</f>
-        <v>78</v>
-      </c>
-      <c r="I81" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="J81" s="19" t="s">
-        <v>271</v>
-      </c>
+      <c r="C81" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="E81" s="1"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="18"/>
+      <c r="A82" s="19"/>
       <c r="B82" s="1" t="n">
         <f aca="false">B81+1</f>
         <v>79</v>
       </c>
-      <c r="C82" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="D82" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="E82" s="1" t="n">
-        <f aca="false">E81+1</f>
-        <v>79</v>
-      </c>
-      <c r="F82" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="G82" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="H82" s="1" t="n">
-        <f aca="false">H81+1</f>
-        <v>79</v>
-      </c>
-      <c r="I82" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="J82" s="19" t="s">
-        <v>273</v>
-      </c>
+      <c r="C82" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="E82" s="1"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="18"/>
+      <c r="A83" s="19"/>
       <c r="B83" s="1" t="n">
         <f aca="false">B82+1</f>
         <v>80</v>
       </c>
-      <c r="C83" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D83" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="E83" s="1" t="n">
-        <f aca="false">E82+1</f>
-        <v>80</v>
-      </c>
-      <c r="F83" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="G83" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H83" s="1" t="n">
-        <f aca="false">H82+1</f>
-        <v>80</v>
-      </c>
-      <c r="I83" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="J83" s="19" t="s">
-        <v>275</v>
-      </c>
+      <c r="C83" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="E83" s="1"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="18"/>
+      <c r="A84" s="19"/>
       <c r="B84" s="1" t="n">
         <f aca="false">B83+1</f>
         <v>81</v>
@@ -5014,326 +4242,136 @@
       <c r="D84" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E84" s="1" t="n">
-        <f aca="false">E83+1</f>
-        <v>81</v>
-      </c>
-      <c r="F84" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G84" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H84" s="1" t="n">
-        <f aca="false">H83+1</f>
-        <v>81</v>
-      </c>
-      <c r="I84" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J84" s="12" t="s">
-        <v>37</v>
-      </c>
+      <c r="E84" s="1"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="18"/>
+      <c r="A85" s="19"/>
       <c r="B85" s="1" t="n">
         <f aca="false">B84+1</f>
         <v>82</v>
       </c>
-      <c r="C85" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="D85" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="E85" s="1" t="n">
-        <f aca="false">E84+1</f>
-        <v>82</v>
-      </c>
-      <c r="F85" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G85" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="H85" s="1" t="n">
-        <f aca="false">H84+1</f>
-        <v>82</v>
-      </c>
-      <c r="I85" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="J85" s="19" t="s">
-        <v>277</v>
-      </c>
+      <c r="C85" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E85" s="1"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="18"/>
+      <c r="A86" s="19"/>
       <c r="B86" s="1" t="n">
         <f aca="false">B85+1</f>
         <v>83</v>
       </c>
-      <c r="C86" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D86" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="E86" s="1" t="n">
-        <f aca="false">E85+1</f>
-        <v>83</v>
-      </c>
-      <c r="F86" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G86" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H86" s="1" t="n">
-        <f aca="false">H85+1</f>
-        <v>83</v>
-      </c>
-      <c r="I86" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="J86" s="19" t="s">
-        <v>279</v>
-      </c>
+      <c r="C86" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="E86" s="1"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="18"/>
+      <c r="A87" s="19"/>
       <c r="B87" s="1" t="n">
         <f aca="false">B86+1</f>
         <v>84</v>
       </c>
-      <c r="C87" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="D87" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="E87" s="1" t="n">
-        <f aca="false">E86+1</f>
-        <v>84</v>
-      </c>
-      <c r="F87" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G87" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H87" s="1" t="n">
-        <f aca="false">H86+1</f>
-        <v>84</v>
-      </c>
-      <c r="I87" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="J87" s="19" t="s">
-        <v>281</v>
-      </c>
+      <c r="C87" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="E87" s="1"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="18"/>
+      <c r="A88" s="19"/>
       <c r="B88" s="1" t="n">
         <f aca="false">B87+1</f>
         <v>85</v>
       </c>
-      <c r="C88" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="D88" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="E88" s="1" t="n">
-        <f aca="false">E87+1</f>
-        <v>85</v>
-      </c>
-      <c r="F88" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G88" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H88" s="1" t="n">
-        <f aca="false">H87+1</f>
-        <v>85</v>
-      </c>
-      <c r="I88" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="J88" s="19" t="s">
-        <v>283</v>
-      </c>
+      <c r="C88" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="E88" s="1"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="18"/>
+      <c r="A89" s="19"/>
       <c r="B89" s="1" t="n">
         <f aca="false">B88+1</f>
         <v>86</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="E89" s="1" t="n">
-        <f aca="false">E88+1</f>
-        <v>86</v>
-      </c>
-      <c r="F89" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="G89" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="H89" s="1" t="n">
-        <f aca="false">H88+1</f>
-        <v>86</v>
-      </c>
-      <c r="I89" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J89" s="12" t="s">
-        <v>37</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="E89" s="1"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="18"/>
+      <c r="A90" s="19"/>
       <c r="B90" s="1" t="n">
         <f aca="false">B89+1</f>
         <v>87</v>
       </c>
-      <c r="C90" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="D90" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E90" s="1" t="n">
-        <f aca="false">E89+1</f>
-        <v>87</v>
-      </c>
-      <c r="F90" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G90" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H90" s="1" t="n">
-        <f aca="false">H89+1</f>
-        <v>87</v>
-      </c>
-      <c r="I90" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="J90" s="19" t="s">
-        <v>284</v>
-      </c>
+      <c r="C90" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="E90" s="1"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="18"/>
+      <c r="A91" s="19"/>
       <c r="B91" s="1" t="n">
         <f aca="false">B90+1</f>
         <v>88</v>
       </c>
-      <c r="C91" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="D91" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="E91" s="1" t="n">
-        <f aca="false">E90+1</f>
-        <v>88</v>
-      </c>
-      <c r="F91" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G91" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="H91" s="1" t="n">
-        <f aca="false">H90+1</f>
-        <v>88</v>
-      </c>
-      <c r="I91" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="J91" s="19" t="s">
-        <v>285</v>
-      </c>
+      <c r="C91" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E91" s="1"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="18"/>
+      <c r="A92" s="19"/>
       <c r="B92" s="1" t="n">
         <f aca="false">B91+1</f>
         <v>89</v>
       </c>
-      <c r="C92" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="D92" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="E92" s="1" t="n">
-        <f aca="false">E91+1</f>
-        <v>89</v>
-      </c>
-      <c r="F92" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="G92" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="H92" s="1" t="n">
-        <f aca="false">H91+1</f>
-        <v>89</v>
-      </c>
-      <c r="I92" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="J92" s="19" t="s">
-        <v>286</v>
-      </c>
+      <c r="C92" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E92" s="1"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="18"/>
+      <c r="A93" s="19"/>
       <c r="B93" s="1" t="n">
         <f aca="false">B92+1</f>
         <v>90</v>
       </c>
-      <c r="C93" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="D93" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="E93" s="1" t="n">
-        <f aca="false">E92+1</f>
-        <v>90</v>
-      </c>
-      <c r="F93" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="G93" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="H93" s="1" t="n">
-        <f aca="false">H92+1</f>
-        <v>90</v>
-      </c>
-      <c r="I93" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="J93" s="19" t="s">
-        <v>287</v>
-      </c>
+      <c r="C93" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="E93" s="1"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="20" t="n">
+      <c r="A94" s="21" t="n">
         <v>3</v>
       </c>
       <c r="B94" s="1" t="n">
@@ -5346,326 +4384,136 @@
       <c r="D94" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E94" s="1" t="n">
-        <f aca="false">E93+1</f>
-        <v>91</v>
-      </c>
-      <c r="F94" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G94" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H94" s="1" t="n">
-        <f aca="false">H93+1</f>
-        <v>91</v>
-      </c>
-      <c r="I94" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J94" s="12" t="s">
-        <v>37</v>
-      </c>
+      <c r="E94" s="1"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="20"/>
+      <c r="A95" s="21"/>
       <c r="B95" s="1" t="n">
         <f aca="false">B94+1</f>
         <v>92</v>
       </c>
-      <c r="C95" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E95" s="1" t="n">
-        <f aca="false">E94+1</f>
-        <v>92</v>
-      </c>
-      <c r="F95" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="G95" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="H95" s="1" t="n">
-        <f aca="false">H94+1</f>
-        <v>92</v>
-      </c>
-      <c r="I95" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="J95" s="21" t="s">
-        <v>288</v>
-      </c>
+      <c r="C95" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="E95" s="1"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="20"/>
+      <c r="A96" s="21"/>
       <c r="B96" s="1" t="n">
         <f aca="false">B95+1</f>
         <v>93</v>
       </c>
-      <c r="C96" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D96" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E96" s="1" t="n">
-        <f aca="false">E95+1</f>
-        <v>93</v>
-      </c>
-      <c r="F96" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="G96" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="H96" s="1" t="n">
-        <f aca="false">H95+1</f>
-        <v>93</v>
-      </c>
-      <c r="I96" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="J96" s="21" t="s">
-        <v>289</v>
-      </c>
+      <c r="C96" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="E96" s="1"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="20"/>
+      <c r="A97" s="21"/>
       <c r="B97" s="1" t="n">
         <f aca="false">B96+1</f>
         <v>94</v>
       </c>
-      <c r="C97" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D97" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E97" s="1" t="n">
-        <f aca="false">E96+1</f>
-        <v>94</v>
-      </c>
-      <c r="F97" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="G97" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="H97" s="1" t="n">
-        <f aca="false">H96+1</f>
-        <v>94</v>
-      </c>
-      <c r="I97" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="J97" s="21" t="s">
-        <v>290</v>
-      </c>
+      <c r="C97" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="E97" s="1"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="20"/>
+      <c r="A98" s="21"/>
       <c r="B98" s="1" t="n">
         <f aca="false">B97+1</f>
         <v>95</v>
       </c>
-      <c r="C98" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D98" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E98" s="1" t="n">
-        <f aca="false">E97+1</f>
-        <v>95</v>
-      </c>
-      <c r="F98" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G98" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="H98" s="1" t="n">
-        <f aca="false">H97+1</f>
-        <v>95</v>
-      </c>
-      <c r="I98" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="J98" s="21" t="s">
-        <v>291</v>
-      </c>
+      <c r="C98" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="E98" s="1"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="20"/>
+      <c r="A99" s="21"/>
       <c r="B99" s="1" t="n">
         <f aca="false">B98+1</f>
         <v>96</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="E99" s="1" t="n">
-        <f aca="false">E98+1</f>
-        <v>96</v>
-      </c>
-      <c r="F99" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="G99" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="H99" s="1" t="n">
-        <f aca="false">H98+1</f>
-        <v>96</v>
-      </c>
-      <c r="I99" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J99" s="12" t="s">
-        <v>37</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="E99" s="1"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="20"/>
+      <c r="A100" s="21"/>
       <c r="B100" s="1" t="n">
         <f aca="false">B99+1</f>
         <v>97</v>
       </c>
-      <c r="C100" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D100" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E100" s="1" t="n">
-        <f aca="false">E99+1</f>
-        <v>97</v>
-      </c>
-      <c r="F100" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G100" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="H100" s="1" t="n">
-        <f aca="false">H99+1</f>
-        <v>97</v>
-      </c>
-      <c r="I100" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="J100" s="21" t="s">
-        <v>293</v>
-      </c>
+      <c r="C100" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E100" s="1"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="20"/>
+      <c r="A101" s="21"/>
       <c r="B101" s="1" t="n">
         <f aca="false">B100+1</f>
         <v>98</v>
       </c>
-      <c r="C101" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D101" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E101" s="1" t="n">
-        <f aca="false">E100+1</f>
-        <v>98</v>
-      </c>
-      <c r="F101" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G101" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="H101" s="1" t="n">
-        <f aca="false">H100+1</f>
-        <v>98</v>
-      </c>
-      <c r="I101" s="21" t="s">
-        <v>294</v>
-      </c>
-      <c r="J101" s="21" t="s">
-        <v>295</v>
-      </c>
+      <c r="C101" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E101" s="1"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="20"/>
+      <c r="A102" s="21"/>
       <c r="B102" s="1" t="n">
         <f aca="false">B101+1</f>
         <v>99</v>
       </c>
-      <c r="C102" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D102" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E102" s="1" t="n">
-        <f aca="false">E101+1</f>
-        <v>99</v>
-      </c>
-      <c r="F102" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H102" s="1" t="n">
-        <f aca="false">H101+1</f>
-        <v>99</v>
-      </c>
-      <c r="I102" s="21" t="s">
-        <v>296</v>
-      </c>
-      <c r="J102" s="21" t="s">
-        <v>297</v>
-      </c>
+      <c r="C102" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="E102" s="1"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="20"/>
+      <c r="A103" s="21"/>
       <c r="B103" s="1" t="n">
         <f aca="false">B102+1</f>
         <v>100</v>
       </c>
-      <c r="C103" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D103" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E103" s="1" t="n">
-        <f aca="false">E102+1</f>
-        <v>100</v>
-      </c>
-      <c r="F103" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="G103" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="H103" s="1" t="n">
-        <f aca="false">H102+1</f>
-        <v>100</v>
-      </c>
-      <c r="I103" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="J103" s="21" t="s">
-        <v>299</v>
-      </c>
+      <c r="C103" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="E103" s="1"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="20"/>
+      <c r="A104" s="21"/>
       <c r="B104" s="1" t="n">
         <f aca="false">B103+1</f>
         <v>101</v>
@@ -5676,326 +4524,136 @@
       <c r="D104" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E104" s="1" t="n">
-        <f aca="false">E103+1</f>
-        <v>101</v>
-      </c>
-      <c r="F104" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G104" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H104" s="1" t="n">
-        <f aca="false">H103+1</f>
-        <v>101</v>
-      </c>
-      <c r="I104" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J104" s="12" t="s">
-        <v>37</v>
-      </c>
+      <c r="E104" s="1"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="20"/>
+      <c r="A105" s="21"/>
       <c r="B105" s="1" t="n">
         <f aca="false">B104+1</f>
         <v>102</v>
       </c>
-      <c r="C105" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D105" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E105" s="1" t="n">
-        <f aca="false">E104+1</f>
-        <v>102</v>
-      </c>
-      <c r="F105" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="G105" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="H105" s="1" t="n">
-        <f aca="false">H104+1</f>
-        <v>102</v>
-      </c>
-      <c r="I105" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="J105" s="21" t="s">
-        <v>301</v>
-      </c>
+      <c r="C105" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="E105" s="1"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="20"/>
+      <c r="A106" s="21"/>
       <c r="B106" s="1" t="n">
         <f aca="false">B105+1</f>
         <v>103</v>
       </c>
-      <c r="C106" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D106" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="E106" s="1" t="n">
-        <f aca="false">E105+1</f>
-        <v>103</v>
-      </c>
-      <c r="F106" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="G106" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="H106" s="1" t="n">
-        <f aca="false">H105+1</f>
-        <v>103</v>
-      </c>
-      <c r="I106" s="21" t="s">
-        <v>302</v>
-      </c>
-      <c r="J106" s="21" t="s">
-        <v>303</v>
-      </c>
+      <c r="C106" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="E106" s="1"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="20"/>
+      <c r="A107" s="21"/>
       <c r="B107" s="1" t="n">
         <f aca="false">B106+1</f>
         <v>104</v>
       </c>
-      <c r="C107" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="D107" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="E107" s="1" t="n">
-        <f aca="false">E106+1</f>
-        <v>104</v>
-      </c>
-      <c r="F107" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="G107" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="H107" s="1" t="n">
-        <f aca="false">H106+1</f>
-        <v>104</v>
-      </c>
-      <c r="I107" s="21" t="s">
-        <v>304</v>
-      </c>
-      <c r="J107" s="21" t="s">
-        <v>305</v>
-      </c>
+      <c r="C107" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E107" s="1"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="20"/>
+      <c r="A108" s="21"/>
       <c r="B108" s="1" t="n">
         <f aca="false">B107+1</f>
         <v>105</v>
       </c>
-      <c r="C108" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D108" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="E108" s="1" t="n">
-        <f aca="false">E107+1</f>
-        <v>105</v>
-      </c>
-      <c r="F108" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G108" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="H108" s="1" t="n">
-        <f aca="false">H107+1</f>
-        <v>105</v>
-      </c>
-      <c r="I108" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="J108" s="21" t="s">
-        <v>307</v>
-      </c>
+      <c r="C108" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E108" s="1"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="20"/>
+      <c r="A109" s="21"/>
       <c r="B109" s="1" t="n">
         <f aca="false">B108+1</f>
         <v>106</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="E109" s="1" t="n">
-        <f aca="false">E108+1</f>
-        <v>106</v>
-      </c>
-      <c r="F109" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="G109" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="H109" s="1" t="n">
-        <f aca="false">H108+1</f>
-        <v>106</v>
-      </c>
-      <c r="I109" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J109" s="12" t="s">
-        <v>37</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="E109" s="1"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="20"/>
+      <c r="A110" s="21"/>
       <c r="B110" s="1" t="n">
         <f aca="false">B109+1</f>
         <v>107</v>
       </c>
-      <c r="C110" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="D110" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="E110" s="1" t="n">
-        <f aca="false">E109+1</f>
-        <v>107</v>
-      </c>
-      <c r="F110" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="G110" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="H110" s="1" t="n">
-        <f aca="false">H109+1</f>
-        <v>107</v>
-      </c>
-      <c r="I110" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="J110" s="21" t="s">
-        <v>309</v>
-      </c>
+      <c r="C110" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E110" s="1"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="20"/>
+      <c r="A111" s="21"/>
       <c r="B111" s="1" t="n">
         <f aca="false">B110+1</f>
         <v>108</v>
       </c>
-      <c r="C111" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="D111" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="E111" s="1" t="n">
-        <f aca="false">E110+1</f>
-        <v>108</v>
-      </c>
-      <c r="F111" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="G111" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="H111" s="1" t="n">
-        <f aca="false">H110+1</f>
-        <v>108</v>
-      </c>
-      <c r="I111" s="21" t="s">
-        <v>310</v>
-      </c>
-      <c r="J111" s="21" t="s">
-        <v>311</v>
-      </c>
+      <c r="C111" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="E111" s="1"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="20"/>
+      <c r="A112" s="21"/>
       <c r="B112" s="1" t="n">
         <f aca="false">B111+1</f>
         <v>109</v>
       </c>
-      <c r="C112" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D112" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="E112" s="1" t="n">
-        <f aca="false">E111+1</f>
-        <v>109</v>
-      </c>
-      <c r="F112" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="G112" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="H112" s="1" t="n">
-        <f aca="false">H111+1</f>
-        <v>109</v>
-      </c>
-      <c r="I112" s="21" t="s">
-        <v>312</v>
-      </c>
-      <c r="J112" s="21" t="s">
-        <v>313</v>
-      </c>
+      <c r="C112" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="E112" s="1"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="20"/>
+      <c r="A113" s="21"/>
       <c r="B113" s="1" t="n">
         <f aca="false">B112+1</f>
         <v>110</v>
       </c>
-      <c r="C113" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="D113" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="E113" s="1" t="n">
-        <f aca="false">E112+1</f>
-        <v>110</v>
-      </c>
-      <c r="F113" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="G113" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="H113" s="1" t="n">
-        <f aca="false">H112+1</f>
-        <v>110</v>
-      </c>
-      <c r="I113" s="21" t="s">
-        <v>314</v>
-      </c>
-      <c r="J113" s="21" t="s">
-        <v>315</v>
-      </c>
+      <c r="C113" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="E113" s="1"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="20"/>
+      <c r="A114" s="21"/>
       <c r="B114" s="1" t="n">
         <f aca="false">B113+1</f>
         <v>111</v>
@@ -6006,332 +4664,140 @@
       <c r="D114" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E114" s="1" t="n">
-        <f aca="false">E113+1</f>
-        <v>111</v>
-      </c>
-      <c r="F114" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G114" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H114" s="1" t="n">
-        <f aca="false">H113+1</f>
-        <v>111</v>
-      </c>
-      <c r="I114" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J114" s="12" t="s">
-        <v>37</v>
-      </c>
+      <c r="E114" s="1"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="20"/>
+      <c r="A115" s="21"/>
       <c r="B115" s="1" t="n">
         <f aca="false">B114+1</f>
         <v>112</v>
       </c>
-      <c r="C115" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="D115" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="E115" s="1" t="n">
-        <f aca="false">E114+1</f>
-        <v>112</v>
-      </c>
-      <c r="F115" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="G115" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="H115" s="1" t="n">
-        <f aca="false">H114+1</f>
-        <v>112</v>
-      </c>
-      <c r="I115" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="J115" s="21" t="s">
-        <v>317</v>
-      </c>
+      <c r="C115" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E115" s="1"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="20"/>
+      <c r="A116" s="21"/>
       <c r="B116" s="1" t="n">
         <f aca="false">B115+1</f>
         <v>113</v>
       </c>
-      <c r="C116" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="D116" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="E116" s="1" t="n">
-        <f aca="false">E115+1</f>
-        <v>113</v>
-      </c>
-      <c r="F116" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G116" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H116" s="1" t="n">
-        <f aca="false">H115+1</f>
-        <v>113</v>
-      </c>
-      <c r="I116" s="21" t="s">
-        <v>318</v>
-      </c>
-      <c r="J116" s="21" t="s">
-        <v>319</v>
-      </c>
+      <c r="C116" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="E116" s="1"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="20"/>
+      <c r="A117" s="21"/>
       <c r="B117" s="1" t="n">
         <f aca="false">B116+1</f>
         <v>114</v>
       </c>
-      <c r="C117" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="D117" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="E117" s="1" t="n">
-        <f aca="false">E116+1</f>
-        <v>114</v>
-      </c>
-      <c r="F117" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G117" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H117" s="1" t="n">
-        <f aca="false">H116+1</f>
-        <v>114</v>
-      </c>
-      <c r="I117" s="21" t="s">
-        <v>320</v>
-      </c>
-      <c r="J117" s="21" t="s">
-        <v>321</v>
-      </c>
+      <c r="C117" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="E117" s="1"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="20"/>
+      <c r="A118" s="21"/>
       <c r="B118" s="1" t="n">
         <f aca="false">B117+1</f>
         <v>115</v>
       </c>
-      <c r="C118" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="D118" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="E118" s="1" t="n">
-        <f aca="false">E117+1</f>
-        <v>115</v>
-      </c>
-      <c r="F118" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="G118" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H118" s="1" t="n">
-        <f aca="false">H117+1</f>
-        <v>115</v>
-      </c>
-      <c r="I118" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="J118" s="21" t="s">
-        <v>323</v>
-      </c>
+      <c r="C118" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="E118" s="1"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="20"/>
+      <c r="A119" s="21"/>
       <c r="B119" s="1" t="n">
         <f aca="false">B118+1</f>
         <v>116</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="E119" s="1" t="n">
-        <f aca="false">E118+1</f>
-        <v>116</v>
-      </c>
-      <c r="F119" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="G119" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="H119" s="1" t="n">
-        <f aca="false">H118+1</f>
-        <v>116</v>
-      </c>
-      <c r="I119" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J119" s="12" t="s">
-        <v>37</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="E119" s="1"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="20"/>
+      <c r="A120" s="21"/>
       <c r="B120" s="1" t="n">
         <f aca="false">B119+1</f>
         <v>117</v>
       </c>
-      <c r="C120" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="D120" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="E120" s="1" t="n">
-        <f aca="false">E119+1</f>
-        <v>117</v>
-      </c>
-      <c r="F120" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G120" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H120" s="1" t="n">
-        <f aca="false">H119+1</f>
-        <v>117</v>
-      </c>
-      <c r="I120" s="21" t="s">
-        <v>324</v>
-      </c>
-      <c r="J120" s="21" t="s">
-        <v>325</v>
-      </c>
+      <c r="C120" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="E120" s="1"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="20"/>
+      <c r="A121" s="21"/>
       <c r="B121" s="1" t="n">
         <f aca="false">B120+1</f>
         <v>118</v>
       </c>
-      <c r="C121" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="D121" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="E121" s="1" t="n">
-        <f aca="false">E120+1</f>
-        <v>118</v>
-      </c>
-      <c r="F121" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="G121" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="H121" s="1" t="n">
-        <f aca="false">H120+1</f>
-        <v>118</v>
-      </c>
-      <c r="I121" s="21" t="s">
-        <v>324</v>
-      </c>
-      <c r="J121" s="21" t="s">
-        <v>326</v>
-      </c>
+      <c r="C121" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E121" s="1"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="20"/>
+      <c r="A122" s="21"/>
       <c r="B122" s="1" t="n">
         <f aca="false">B121+1</f>
         <v>119</v>
       </c>
-      <c r="C122" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="D122" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="E122" s="1" t="n">
-        <f aca="false">E121+1</f>
-        <v>119</v>
-      </c>
-      <c r="F122" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="G122" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="H122" s="1" t="n">
-        <f aca="false">H121+1</f>
-        <v>119</v>
-      </c>
-      <c r="I122" s="21" t="s">
-        <v>324</v>
-      </c>
-      <c r="J122" s="21" t="s">
-        <v>327</v>
-      </c>
+      <c r="C122" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E122" s="1"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="20"/>
+      <c r="A123" s="21"/>
       <c r="B123" s="1" t="n">
         <f aca="false">B122+1</f>
         <v>120</v>
       </c>
-      <c r="C123" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="D123" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="E123" s="1" t="n">
-        <f aca="false">E122+1</f>
-        <v>120</v>
-      </c>
-      <c r="F123" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="G123" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="H123" s="1" t="n">
-        <f aca="false">H122+1</f>
-        <v>120</v>
-      </c>
-      <c r="I123" s="21" t="s">
-        <v>324</v>
-      </c>
-      <c r="J123" s="21" t="s">
-        <v>328</v>
-      </c>
+      <c r="C123" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="E123" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="8">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="I1:J1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="I2:J2"/>
     <mergeCell ref="A5:A33"/>
     <mergeCell ref="A34:A63"/>
     <mergeCell ref="A64:A93"/>
